--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/2025-04-23_Pre fixing the maximising capacity issue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/2025-04-23_Pre fixing the maximising capacity issue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="114_{2F16A321-EA0F-487D-AC5C-7532FEB73238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AA8B8E-123E-4691-819C-C6E829BF8A93}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="114_{2F16A321-EA0F-487D-AC5C-7532FEB73238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABA3923-5D12-49AB-9EB8-91B24D103682}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6840" yWindow="3888" windowWidth="7860" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Outputted Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW DATA'!$F$2:$F$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW DATA'!$F$2:$F$395</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6338" uniqueCount="1493">
   <si>
     <t>Battery number</t>
   </si>
@@ -4519,15 +4519,6 @@
   </si>
   <si>
     <t>GCTPR</t>
-  </si>
-  <si>
-    <t>SKI Kia EV6</t>
-  </si>
-  <si>
-    <t>Battery_347</t>
-  </si>
-  <si>
-    <t>Battery_348</t>
   </si>
 </sst>
 </file>
@@ -5154,13 +5145,13 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AP357"/>
+  <dimension ref="A1:AP355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="N323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="N314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P336" sqref="P336"/>
+      <selection pane="bottomRight" activeCell="P342" sqref="P342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -44580,11 +44571,11 @@
         <v>49</v>
       </c>
       <c r="AN323">
-        <f t="shared" ref="AN323:AN350" si="28">IF(G323="Pouch",1,IF(G323="Prismatic",2,IF(G323="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN323:AN348" si="28">IF(G323="Pouch",1,IF(G323="Prismatic",2,IF(G323="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO323">
-        <f t="shared" ref="AO323:AO357" si="29">IF(AN323=1, 60.25, IF(AN323=2, 60.79, IF(AN323=3, 64.69, 0)))</f>
+        <f t="shared" ref="AO323:AO355" si="29">IF(AN323=1, 60.25, IF(AN323=2, 60.79, IF(AN323=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
       <c r="AP323">
@@ -44704,7 +44695,7 @@
         <v>60.25</v>
       </c>
       <c r="AP324">
-        <f t="shared" ref="AP324:AP357" si="30">IF(AN324=1, 35.3, IF(AN324=2, 35.3, IF(AN324=3, 29.5, 0)))</f>
+        <f t="shared" ref="AP324:AP355" si="30">IF(AN324=1, 35.3, IF(AN324=2, 35.3, IF(AN324=3, 29.5, 0)))</f>
         <v>35.299999999999997</v>
       </c>
     </row>
@@ -46055,110 +46046,114 @@
     </row>
     <row r="336" spans="1:42">
       <c r="A336" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E336" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B336" s="50" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C336" s="50" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D336" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="E336" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G336" s="3" t="s">
+      <c r="F336" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G336" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H336" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I336" s="3" t="s">
+      <c r="H336" s="50" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I336" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J336" s="3" t="s">
+      <c r="J336" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K336" s="4">
-        <v>1000</v>
-      </c>
-      <c r="L336" s="4">
+      <c r="K336" s="51">
+        <v>2000</v>
+      </c>
+      <c r="L336" s="51">
         <v>80</v>
       </c>
-      <c r="M336" s="3">
-        <v>712</v>
-      </c>
-      <c r="N336" s="3">
-        <v>285</v>
-      </c>
-      <c r="O336" s="3">
-        <v>55.6</v>
-      </c>
-      <c r="P336" s="3">
+      <c r="M336" s="50">
+        <v>685</v>
+      </c>
+      <c r="N336" s="50">
+        <v>273</v>
+      </c>
+      <c r="O336" s="50">
+        <v>80.45</v>
+      </c>
+      <c r="P336" s="50">
         <v>4.2</v>
       </c>
-      <c r="Q336" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="R336" s="3">
+      <c r="Q336" s="50">
+        <v>3.7</v>
+      </c>
+      <c r="R336" s="50">
         <v>2.5</v>
       </c>
-      <c r="S336" s="3">
-        <v>118</v>
-      </c>
-      <c r="T336" s="3">
-        <v>149</v>
-      </c>
+      <c r="S336" s="50"/>
+      <c r="T336" s="50"/>
       <c r="U336" s="6">
         <v>1</v>
       </c>
-      <c r="V336" s="3">
-        <v>745.3</v>
-      </c>
-      <c r="X336" s="3">
-        <v>117</v>
-      </c>
-      <c r="Y336" s="3">
-        <f>0.5*O336</f>
-        <v>27.8</v>
-      </c>
+      <c r="V336" s="50">
+        <v>1.101</v>
+      </c>
+      <c r="W336" s="50">
+        <v>0.438</v>
+      </c>
+      <c r="X336" s="50">
+        <v>125</v>
+      </c>
+      <c r="Y336" s="50"/>
       <c r="Z336" s="6">
         <v>1</v>
       </c>
-      <c r="AA336" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB336" s="4">
-        <v>355</v>
-      </c>
-      <c r="AC336" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="AD336" s="4">
-        <v>100</v>
-      </c>
-      <c r="AE336" s="7" t="s">
+      <c r="AA336" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB336" s="51">
+        <v>515</v>
+      </c>
+      <c r="AC336" s="51">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD336" s="51">
+        <v>98</v>
+      </c>
+      <c r="AE336" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AF336" s="4">
-        <v>2019</v>
-      </c>
-      <c r="AH336" s="4" t="s">
+      <c r="AF336" s="51">
+        <v>2020</v>
+      </c>
+      <c r="AG336" s="51"/>
+      <c r="AH336" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AK336" s="10" t="s">
+      <c r="AI336" s="53" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AJ336" s="51"/>
+      <c r="AK336" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL336" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM336" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN336">
-        <f>IF(G336="Pouch",1,IF(G336="Prismatic",2,IF(G336="Cylindrical",3,"")))</f>
+      <c r="AL336" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM336" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN336" s="40">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AO336">
@@ -46172,95 +46167,143 @@
     </row>
     <row r="337" spans="1:42">
       <c r="A337" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G337" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B337" s="50" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C337" s="50" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D337" s="50" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E337" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F337" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G337" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H337" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J337" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K337" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M337" s="3">
-        <v>738</v>
-      </c>
-      <c r="N337" s="3">
-        <v>262</v>
-      </c>
-      <c r="O337" s="3">
-        <v>5</v>
-      </c>
-      <c r="P337" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="Q337" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="R337" s="3">
+      <c r="H337" s="50" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I337" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J337" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="K337" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L337" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M337" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N337" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="O337" s="50">
+        <v>50</v>
+      </c>
+      <c r="P337" s="50">
+        <v>3.65</v>
+      </c>
+      <c r="Q337" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="R337" s="50">
         <v>2.5</v>
       </c>
-      <c r="T337" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="V337" s="3">
-        <v>68.3</v>
-      </c>
-      <c r="X337" s="3">
-        <v>6.431</v>
-      </c>
-      <c r="AB337" s="4" t="s">
+      <c r="S337" s="50">
+        <f>0.2*O337</f>
+        <v>10</v>
+      </c>
+      <c r="T337" s="50"/>
+      <c r="U337" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V337" s="50">
+        <v>1550</v>
+      </c>
+      <c r="W337" s="50"/>
+      <c r="X337" s="50"/>
+      <c r="Y337" s="50">
+        <f>0.2*O337</f>
+        <v>10</v>
+      </c>
+      <c r="Z337" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA337" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB337" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AC337" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AE337" s="7">
-        <v>21</v>
-      </c>
-      <c r="AN337">
+      <c r="AC337" s="51">
+        <v>380</v>
+      </c>
+      <c r="AD337" s="51"/>
+      <c r="AE337" s="51">
+        <v>55</v>
+      </c>
+      <c r="AF337" s="51"/>
+      <c r="AG337" s="51"/>
+      <c r="AH337" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI337" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ337" s="51"/>
+      <c r="AK337" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL337" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AM337" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN337" s="40">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AO337">
-        <v>67.849999999999994</v>
+        <f t="shared" si="29"/>
+        <v>64.69</v>
       </c>
       <c r="AP337">
-        <f t="shared" ref="AP337" si="31">IF(AN337=1, 35.3, IF(AN337=2, 35.3, IF(AN337=3, 29.5, 0)))</f>
+        <f t="shared" si="30"/>
         <v>29.5</v>
       </c>
     </row>
     <row r="338" spans="1:42">
       <c r="A338" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="C338" s="50" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="D338" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="E338" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F338" s="50" t="s">
-        <v>44</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="E338" s="50"/>
+      <c r="F338" s="50"/>
       <c r="G338" s="50" t="s">
         <v>45</v>
       </c>
       <c r="H338" s="50" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="I338" s="50" t="s">
         <v>47</v>
@@ -46269,19 +46312,19 @@
         <v>48</v>
       </c>
       <c r="K338" s="51">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L338" s="51">
         <v>80</v>
       </c>
-      <c r="M338" s="50">
-        <v>685</v>
-      </c>
-      <c r="N338" s="50">
-        <v>273</v>
+      <c r="M338" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N338" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="O338" s="50">
-        <v>80.45</v>
+        <v>3.5</v>
       </c>
       <c r="P338" s="50">
         <v>4.2</v>
@@ -46290,57 +46333,61 @@
         <v>3.7</v>
       </c>
       <c r="R338" s="50">
-        <v>2.5</v>
-      </c>
-      <c r="S338" s="50"/>
+        <v>2.75</v>
+      </c>
+      <c r="S338" s="50">
+        <v>0.7</v>
+      </c>
       <c r="T338" s="50"/>
       <c r="U338" s="6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="V338" s="50">
-        <v>1.101</v>
+        <v>71</v>
       </c>
       <c r="W338" s="50">
-        <v>0.438</v>
+        <v>38.744999999999997</v>
       </c>
       <c r="X338" s="50">
-        <v>125</v>
-      </c>
-      <c r="Y338" s="50"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y338" s="50">
+        <v>0.72</v>
+      </c>
       <c r="Z338" s="6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AA338" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB338" s="51">
-        <v>515</v>
+        <v>136</v>
       </c>
       <c r="AC338" s="51">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD338" s="51">
-        <v>98</v>
+        <v>35.5</v>
       </c>
       <c r="AE338" s="52" t="s">
         <v>50</v>
       </c>
       <c r="AF338" s="51">
-        <v>2020</v>
-      </c>
-      <c r="AG338" s="51"/>
-      <c r="AH338" s="51" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AG338" s="51" t="s">
         <v>51</v>
       </c>
+      <c r="AH338" s="51"/>
       <c r="AI338" s="53" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="AJ338" s="51"/>
       <c r="AK338" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL338" s="6" t="s">
-        <v>49</v>
+      <c r="AL338" s="6">
+        <v>0.05</v>
       </c>
       <c r="AM338" s="6" t="s">
         <v>49</v>
@@ -46360,40 +46407,36 @@
     </row>
     <row r="339" spans="1:42">
       <c r="A339" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="B339" s="50" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="C339" s="50" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="D339" s="50" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E339" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F339" s="50" t="s">
-        <v>90</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="E339" s="50"/>
+      <c r="F339" s="50"/>
       <c r="G339" s="50" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="H339" s="50" t="s">
-        <v>1337</v>
+        <v>1344</v>
       </c>
       <c r="I339" s="50" t="s">
         <v>47</v>
       </c>
       <c r="J339" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="K339" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="L339" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="K339" s="51">
+        <v>500</v>
+      </c>
+      <c r="L339" s="51">
+        <v>80</v>
       </c>
       <c r="M339" s="51" t="s">
         <v>49</v>
@@ -46402,101 +46445,111 @@
         <v>49</v>
       </c>
       <c r="O339" s="50">
+        <v>4.53</v>
+      </c>
+      <c r="P339" s="50">
+        <v>4.2</v>
+      </c>
+      <c r="Q339" s="50">
+        <v>3.7</v>
+      </c>
+      <c r="R339" s="50">
+        <v>3</v>
+      </c>
+      <c r="S339" s="50">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="T339" s="50"/>
+      <c r="U339" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V339" s="50">
+        <v>106</v>
+      </c>
+      <c r="W339" s="50">
+        <v>50.752000000000002</v>
+      </c>
+      <c r="X339" s="50">
+        <v>4.53</v>
+      </c>
+      <c r="Y339" s="50">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Z339" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AA339" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB339" s="51">
+        <v>122</v>
+      </c>
+      <c r="AC339" s="51">
+        <v>5.2</v>
+      </c>
+      <c r="AD339" s="51">
+        <v>80</v>
+      </c>
+      <c r="AE339" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="P339" s="50">
-        <v>3.65</v>
-      </c>
-      <c r="Q339" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="R339" s="50">
-        <v>2.5</v>
-      </c>
-      <c r="S339" s="50">
-        <f>0.2*O339</f>
-        <v>10</v>
-      </c>
-      <c r="T339" s="50"/>
-      <c r="U339" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V339" s="50">
-        <v>1550</v>
-      </c>
-      <c r="W339" s="50"/>
-      <c r="X339" s="50"/>
-      <c r="Y339" s="50">
-        <f>0.2*O339</f>
-        <v>10</v>
-      </c>
-      <c r="Z339" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA339" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB339" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC339" s="51">
-        <v>380</v>
-      </c>
-      <c r="AD339" s="51"/>
-      <c r="AE339" s="51">
-        <v>55</v>
-      </c>
-      <c r="AF339" s="51"/>
+      <c r="AF339" s="51">
+        <v>2008</v>
+      </c>
       <c r="AG339" s="51"/>
       <c r="AH339" s="51" t="s">
         <v>51</v>
       </c>
       <c r="AI339" s="53" t="s">
-        <v>208</v>
+        <v>831</v>
       </c>
       <c r="AJ339" s="51"/>
       <c r="AK339" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL339" s="6">
-        <v>0.05</v>
+      <c r="AL339" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AM339" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AN339" s="40">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO339">
         <f t="shared" si="29"/>
-        <v>64.69</v>
+        <v>60.25</v>
       </c>
       <c r="AP339">
         <f t="shared" si="30"/>
-        <v>29.5</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="340" spans="1:42">
       <c r="A340" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="B340" s="50" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="C340" s="50" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="D340" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="E340" s="50"/>
-      <c r="F340" s="50"/>
+        <v>508</v>
+      </c>
+      <c r="E340" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F340" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="G340" s="50" t="s">
         <v>45</v>
       </c>
       <c r="H340" s="50" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="I340" s="50" t="s">
         <v>47</v>
@@ -46505,82 +46558,80 @@
         <v>48</v>
       </c>
       <c r="K340" s="51">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L340" s="51">
         <v>80</v>
       </c>
-      <c r="M340" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N340" s="51" t="s">
-        <v>49</v>
+      <c r="M340" s="50">
+        <v>840</v>
+      </c>
+      <c r="N340" s="50">
+        <v>350</v>
       </c>
       <c r="O340" s="50">
-        <v>3.5</v>
+        <v>10.6</v>
       </c>
       <c r="P340" s="50">
-        <v>4.2</v>
+        <v>4.47</v>
       </c>
       <c r="Q340" s="50">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="R340" s="50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S340" s="50">
-        <v>0.7</v>
+        <v>2.12</v>
       </c>
       <c r="T340" s="50"/>
-      <c r="U340" s="6">
-        <v>0.2</v>
+      <c r="U340" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="V340" s="50">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="W340" s="50">
-        <v>38.744999999999997</v>
-      </c>
-      <c r="X340" s="50">
-        <v>1.75</v>
-      </c>
+        <v>46.4</v>
+      </c>
+      <c r="X340" s="50"/>
       <c r="Y340" s="50">
-        <v>0.72</v>
-      </c>
-      <c r="Z340" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AA340" s="6" t="s">
+        <v>2.12</v>
+      </c>
+      <c r="Z340" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA340" s="54" t="s">
         <v>49</v>
       </c>
       <c r="AB340" s="51">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AC340" s="51">
-        <v>8.1999999999999993</v>
+        <v>5</v>
       </c>
       <c r="AD340" s="51">
-        <v>35.5</v>
+        <v>64</v>
       </c>
       <c r="AE340" s="52" t="s">
         <v>50</v>
       </c>
       <c r="AF340" s="51">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="AG340" s="51" t="s">
         <v>51</v>
       </c>
       <c r="AH340" s="51"/>
       <c r="AI340" s="53" t="s">
-        <v>1341</v>
+        <v>58</v>
       </c>
       <c r="AJ340" s="51"/>
       <c r="AK340" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL340" s="6">
-        <v>0.05</v>
+      <c r="AL340" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AM340" s="6" t="s">
         <v>49</v>
@@ -46600,24 +46651,28 @@
     </row>
     <row r="341" spans="1:42">
       <c r="A341" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="B341" s="50" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="C341" s="50" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="D341" s="50" t="s">
-        <v>829</v>
-      </c>
-      <c r="E341" s="50"/>
-      <c r="F341" s="50"/>
+        <v>1350</v>
+      </c>
+      <c r="E341" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="F341" s="50" t="s">
+        <v>350</v>
+      </c>
       <c r="G341" s="50" t="s">
         <v>45</v>
       </c>
       <c r="H341" s="50" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="I341" s="50" t="s">
         <v>47</v>
@@ -46626,7 +46681,7 @@
         <v>48</v>
       </c>
       <c r="K341" s="51">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="L341" s="51">
         <v>80</v>
@@ -46638,63 +46693,63 @@
         <v>49</v>
       </c>
       <c r="O341" s="50">
-        <v>4.53</v>
+        <v>28</v>
       </c>
       <c r="P341" s="50">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q341" s="50">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="R341" s="50">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="S341" s="50">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="T341" s="50"/>
-      <c r="U341" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V341" s="50">
-        <v>106</v>
-      </c>
-      <c r="W341" s="50">
-        <v>50.752000000000002</v>
-      </c>
+        <f>1*O341</f>
+        <v>28</v>
+      </c>
+      <c r="T341" s="50">
+        <f>15*O341</f>
+        <v>420</v>
+      </c>
+      <c r="U341" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V341" s="50"/>
+      <c r="W341" s="50"/>
       <c r="X341" s="50">
-        <v>4.53</v>
+        <f>6*O341</f>
+        <v>168</v>
       </c>
       <c r="Y341" s="50">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="Z341" s="6">
-        <v>0.5</v>
+        <f>1*O341</f>
+        <v>28</v>
+      </c>
+      <c r="Z341" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AA341" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB341" s="51">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="AC341" s="51">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="AD341" s="51">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AE341" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AF341" s="51">
-        <v>2008</v>
-      </c>
+      <c r="AF341" s="51"/>
       <c r="AG341" s="51"/>
       <c r="AH341" s="51" t="s">
         <v>51</v>
       </c>
       <c r="AI341" s="53" t="s">
-        <v>831</v>
+        <v>208</v>
       </c>
       <c r="AJ341" s="51"/>
       <c r="AK341" s="6" t="s">
@@ -46721,16 +46776,16 @@
     </row>
     <row r="342" spans="1:42">
       <c r="A342" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="B342" s="50" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="C342" s="50" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="D342" s="50" t="s">
-        <v>508</v>
+        <v>42</v>
       </c>
       <c r="E342" s="50" t="s">
         <v>43</v>
@@ -46742,7 +46797,7 @@
         <v>45</v>
       </c>
       <c r="H342" s="50" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="I342" s="50" t="s">
         <v>47</v>
@@ -46751,71 +46806,78 @@
         <v>48</v>
       </c>
       <c r="K342" s="51">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="L342" s="51">
-        <v>80</v>
-      </c>
-      <c r="M342" s="50">
-        <v>840</v>
+        <v>70</v>
+      </c>
+      <c r="M342" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="N342" s="50">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="O342" s="50">
-        <v>10.6</v>
+        <v>85</v>
       </c>
       <c r="P342" s="50">
-        <v>4.47</v>
+        <v>4.2</v>
       </c>
       <c r="Q342" s="50">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="R342" s="50">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S342" s="50">
-        <v>2.12</v>
-      </c>
-      <c r="T342" s="50"/>
-      <c r="U342" s="6" t="s">
-        <v>49</v>
+        <f>O342*0.2</f>
+        <v>17</v>
+      </c>
+      <c r="T342" s="50">
+        <f>8*O342</f>
+        <v>680</v>
+      </c>
+      <c r="U342" s="6">
+        <v>1</v>
       </c>
       <c r="V342" s="50">
-        <v>111</v>
-      </c>
-      <c r="W342" s="50">
-        <v>46.4</v>
-      </c>
-      <c r="X342" s="50"/>
+        <v>1735</v>
+      </c>
+      <c r="W342" s="50"/>
+      <c r="X342" s="50" t="s">
+        <v>1355</v>
+      </c>
       <c r="Y342" s="50">
-        <v>2.12</v>
-      </c>
-      <c r="Z342" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA342" s="54" t="s">
+        <f>O342*0.2</f>
+        <v>17</v>
+      </c>
+      <c r="Z342" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA342" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB342" s="51">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="AC342" s="51">
-        <v>5</v>
+        <v>12.6</v>
       </c>
       <c r="AD342" s="51">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="AE342" s="52" t="s">
         <v>50</v>
       </c>
       <c r="AF342" s="51">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="AG342" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AH342" s="51"/>
+      <c r="AH342" s="51" t="s">
+        <v>51</v>
+      </c>
       <c r="AI342" s="53" t="s">
         <v>58</v>
       </c>
@@ -46826,8 +46888,8 @@
       <c r="AL342" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AM342" s="6" t="s">
-        <v>49</v>
+      <c r="AM342" s="55">
+        <v>0.9</v>
       </c>
       <c r="AN342" s="40">
         <f t="shared" si="28"/>
@@ -46842,30 +46904,30 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:42">
+    <row r="343" spans="1:42" s="40" customFormat="1">
       <c r="A343" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="B343" s="50" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="C343" s="50" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="D343" s="50" t="s">
-        <v>1350</v>
+        <v>419</v>
       </c>
       <c r="E343" s="50" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="F343" s="50" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G343" s="50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H343" s="50" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="I343" s="50" t="s">
         <v>47</v>
@@ -46874,123 +46936,122 @@
         <v>48</v>
       </c>
       <c r="K343" s="51">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="L343" s="51">
         <v>80</v>
       </c>
-      <c r="M343" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N343" s="51" t="s">
-        <v>49</v>
+      <c r="M343" s="50">
+        <v>285</v>
+      </c>
+      <c r="N343" s="50">
+        <v>114</v>
       </c>
       <c r="O343" s="50">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P343" s="50">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q343" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="R343" s="50">
+        <v>3</v>
+      </c>
+      <c r="S343" s="50">
         <v>2.4</v>
       </c>
-      <c r="R343" s="50">
-        <v>1.6</v>
-      </c>
-      <c r="S343" s="50">
-        <f>1*O343</f>
-        <v>28</v>
-      </c>
       <c r="T343" s="50">
-        <f>15*O343</f>
-        <v>420</v>
-      </c>
-      <c r="U343" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V343" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="U343" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V343" s="50">
+        <v>465</v>
+      </c>
       <c r="W343" s="50"/>
-      <c r="X343" s="50">
-        <f>6*O343</f>
-        <v>168</v>
-      </c>
+      <c r="X343" s="50"/>
       <c r="Y343" s="50">
-        <f>1*O343</f>
-        <v>28</v>
-      </c>
-      <c r="Z343" s="6" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="Z343" s="6">
+        <v>0.5</v>
       </c>
       <c r="AA343" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB343" s="51">
-        <v>225</v>
+        <v>97.9</v>
       </c>
       <c r="AC343" s="51">
-        <v>8</v>
+        <v>25.3</v>
       </c>
       <c r="AD343" s="51">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="AE343" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AF343" s="51"/>
-      <c r="AG343" s="51"/>
-      <c r="AH343" s="51" t="s">
+      <c r="AF343" s="51">
+        <v>2019</v>
+      </c>
+      <c r="AG343" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AI343" s="53" t="s">
-        <v>208</v>
+      <c r="AH343" s="51"/>
+      <c r="AI343" s="51" t="s">
+        <v>1359</v>
       </c>
       <c r="AJ343" s="51"/>
       <c r="AK343" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL343" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM343" s="6" t="s">
-        <v>49</v>
+      <c r="AL343" s="6">
+        <f t="shared" ref="AL343:AL348" si="31">1/50</f>
+        <v>0.02</v>
+      </c>
+      <c r="AM343" s="55">
+        <v>1</v>
       </c>
       <c r="AN343" s="40">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO343">
         <f t="shared" si="29"/>
-        <v>60.25</v>
+        <v>60.79</v>
       </c>
       <c r="AP343">
         <f t="shared" si="30"/>
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:42">
+    <row r="344" spans="1:42" s="40" customFormat="1">
       <c r="A344" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="B344" s="50" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="C344" s="50" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="D344" s="50" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="E344" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F344" s="50" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="G344" s="50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H344" s="50" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="I344" s="50" t="s">
         <v>47</v>
@@ -46999,98 +47060,90 @@
         <v>48</v>
       </c>
       <c r="K344" s="51">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L344" s="51">
-        <v>70</v>
-      </c>
-      <c r="M344" s="51" t="s">
-        <v>49</v>
+        <v>80</v>
+      </c>
+      <c r="M344" s="50">
+        <v>393</v>
       </c>
       <c r="N344" s="50">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O344" s="50">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="P344" s="50">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q344" s="50">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R344" s="50">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="S344" s="50">
-        <f>O344*0.2</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T344" s="50">
-        <f>8*O344</f>
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="U344" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V344" s="50">
-        <v>1735</v>
+        <v>1600</v>
       </c>
       <c r="W344" s="50"/>
-      <c r="X344" s="50" t="s">
-        <v>1355</v>
-      </c>
+      <c r="X344" s="50"/>
       <c r="Y344" s="50">
-        <f>O344*0.2</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z344" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA344" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB344" s="51">
-        <v>265</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="AC344" s="51">
-        <v>12.6</v>
+        <v>34</v>
       </c>
       <c r="AD344" s="51">
-        <v>268</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="AE344" s="52" t="s">
         <v>50</v>
       </c>
       <c r="AF344" s="51">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="AG344" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AH344" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI344" s="53" t="s">
-        <v>58</v>
-      </c>
+      <c r="AH344" s="51"/>
+      <c r="AI344" s="53"/>
       <c r="AJ344" s="51"/>
       <c r="AK344" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL344" s="6" t="s">
-        <v>49</v>
+      <c r="AL344" s="6">
+        <f t="shared" si="31"/>
+        <v>0.02</v>
       </c>
       <c r="AM344" s="55">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AN344" s="40">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO344">
         <f t="shared" si="29"/>
-        <v>60.25</v>
+        <v>60.79</v>
       </c>
       <c r="AP344">
         <f t="shared" si="30"/>
@@ -47099,13 +47152,13 @@
     </row>
     <row r="345" spans="1:42" s="40" customFormat="1">
       <c r="A345" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="B345" s="50" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="C345" s="50" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="D345" s="50" t="s">
         <v>419</v>
@@ -47120,7 +47173,7 @@
         <v>48</v>
       </c>
       <c r="H345" s="50" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="I345" s="50" t="s">
         <v>47</v>
@@ -47135,13 +47188,13 @@
         <v>80</v>
       </c>
       <c r="M345" s="50">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="N345" s="50">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="O345" s="50">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P345" s="50">
         <v>4.0999999999999996</v>
@@ -47153,16 +47206,16 @@
         <v>3</v>
       </c>
       <c r="S345" s="50">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="T345" s="50">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="U345" s="6">
         <v>0.5</v>
       </c>
       <c r="V345" s="50">
-        <v>465</v>
+        <v>950</v>
       </c>
       <c r="W345" s="50"/>
       <c r="X345" s="50"/>
@@ -47176,13 +47229,13 @@
         <v>49</v>
       </c>
       <c r="AB345" s="51">
-        <v>97.9</v>
+        <v>140.5</v>
       </c>
       <c r="AC345" s="51">
-        <v>25.3</v>
+        <v>28.1</v>
       </c>
       <c r="AD345" s="51">
-        <v>71</v>
+        <v>95.7</v>
       </c>
       <c r="AE345" s="52" t="s">
         <v>50</v>
@@ -47195,14 +47248,14 @@
       </c>
       <c r="AH345" s="51"/>
       <c r="AI345" s="51" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="AJ345" s="51"/>
       <c r="AK345" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AL345" s="6">
-        <f t="shared" ref="AL345:AL350" si="32">1/50</f>
+        <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
       <c r="AM345" s="55">
@@ -47223,13 +47276,13 @@
     </row>
     <row r="346" spans="1:42" s="40" customFormat="1">
       <c r="A346" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="B346" s="50" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="C346" s="50" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="D346" s="50" t="s">
         <v>419</v>
@@ -47244,7 +47297,7 @@
         <v>48</v>
       </c>
       <c r="H346" s="50" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="I346" s="50" t="s">
         <v>47</v>
@@ -47252,20 +47305,20 @@
       <c r="J346" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K346" s="51">
-        <v>2000</v>
-      </c>
-      <c r="L346" s="51">
-        <v>80</v>
+      <c r="K346" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L346" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="M346" s="50">
-        <v>393</v>
+        <v>263</v>
       </c>
       <c r="N346" s="50">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="O346" s="50">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="P346" s="50">
         <v>4.0999999999999996</v>
@@ -47277,36 +47330,34 @@
         <v>3</v>
       </c>
       <c r="S346" s="50">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="T346" s="50">
-        <v>250</v>
-      </c>
-      <c r="U346" s="6">
-        <v>0.5</v>
+        <v>24</v>
+      </c>
+      <c r="U346" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="V346" s="50">
-        <v>1600</v>
+        <v>222</v>
       </c>
       <c r="W346" s="50"/>
       <c r="X346" s="50"/>
-      <c r="Y346" s="50">
-        <v>12</v>
-      </c>
-      <c r="Z346" s="6">
-        <v>0.5</v>
+      <c r="Y346" s="51"/>
+      <c r="Z346" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AA346" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AB346" s="51">
-        <v>141.30000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="AC346" s="51">
-        <v>34</v>
+        <v>22.2</v>
       </c>
       <c r="AD346" s="51">
-        <v>137.69999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="AE346" s="52" t="s">
         <v>50</v>
@@ -47319,12 +47370,14 @@
       </c>
       <c r="AH346" s="51"/>
       <c r="AI346" s="53"/>
-      <c r="AJ346" s="51"/>
+      <c r="AJ346" s="51" t="s">
+        <v>1370</v>
+      </c>
       <c r="AK346" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AL346" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
       <c r="AM346" s="55">
@@ -47345,13 +47398,13 @@
     </row>
     <row r="347" spans="1:42" s="40" customFormat="1">
       <c r="A347" t="s">
-        <v>1363</v>
+        <v>1371</v>
       </c>
       <c r="B347" s="50" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="C347" s="50" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="D347" s="50" t="s">
         <v>419</v>
@@ -47366,7 +47419,7 @@
         <v>48</v>
       </c>
       <c r="H347" s="50" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="I347" s="50" t="s">
         <v>47</v>
@@ -47381,13 +47434,13 @@
         <v>80</v>
       </c>
       <c r="M347" s="50">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="N347" s="50">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O347" s="50">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="P347" s="50">
         <v>4.0999999999999996</v>
@@ -47399,21 +47452,21 @@
         <v>3</v>
       </c>
       <c r="S347" s="50">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="T347" s="50">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="U347" s="6">
         <v>0.5</v>
       </c>
       <c r="V347" s="50">
-        <v>950</v>
+        <v>1270</v>
       </c>
       <c r="W347" s="50"/>
       <c r="X347" s="50"/>
       <c r="Y347" s="50">
-        <v>6</v>
+        <v>21.5</v>
       </c>
       <c r="Z347" s="6">
         <v>0.5</v>
@@ -47422,13 +47475,13 @@
         <v>49</v>
       </c>
       <c r="AB347" s="51">
-        <v>140.5</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="AC347" s="51">
-        <v>28.1</v>
+        <v>30.7</v>
       </c>
       <c r="AD347" s="51">
-        <v>95.7</v>
+        <v>106.7</v>
       </c>
       <c r="AE347" s="52" t="s">
         <v>50</v>
@@ -47441,14 +47494,14 @@
       </c>
       <c r="AH347" s="51"/>
       <c r="AI347" s="51" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="AJ347" s="51"/>
       <c r="AK347" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AL347" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
       <c r="AM347" s="55">
@@ -47469,13 +47522,13 @@
     </row>
     <row r="348" spans="1:42" s="40" customFormat="1">
       <c r="A348" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="B348" s="50" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="C348" s="50" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="D348" s="50" t="s">
         <v>419</v>
@@ -47490,7 +47543,7 @@
         <v>48</v>
       </c>
       <c r="H348" s="50" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="I348" s="50" t="s">
         <v>47</v>
@@ -47505,13 +47558,13 @@
         <v>49</v>
       </c>
       <c r="M348" s="50">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="N348" s="50">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="O348" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P348" s="50">
         <v>4.0999999999999996</v>
@@ -47522,21 +47575,21 @@
       <c r="R348" s="50">
         <v>3</v>
       </c>
-      <c r="S348" s="50">
-        <v>1.2</v>
-      </c>
+      <c r="S348" s="51"/>
       <c r="T348" s="50">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="U348" s="6" t="s">
         <v>49</v>
       </c>
       <c r="V348" s="50">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="W348" s="50"/>
       <c r="X348" s="50"/>
-      <c r="Y348" s="51"/>
+      <c r="Y348" s="50">
+        <v>2.5</v>
+      </c>
       <c r="Z348" s="6" t="s">
         <v>49</v>
       </c>
@@ -47544,13 +47597,13 @@
         <v>49</v>
       </c>
       <c r="AB348" s="51">
-        <v>77.8</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="AC348" s="51">
-        <v>22.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD348" s="51">
-        <v>49.8</v>
+        <v>105.9</v>
       </c>
       <c r="AE348" s="52" t="s">
         <v>50</v>
@@ -47564,13 +47617,13 @@
       <c r="AH348" s="51"/>
       <c r="AI348" s="53"/>
       <c r="AJ348" s="51" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="AK348" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AL348" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
       <c r="AM348" s="55">
@@ -47590,249 +47643,23 @@
       </c>
     </row>
     <row r="349" spans="1:42" s="40" customFormat="1">
-      <c r="A349" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B349" s="50" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C349" s="50" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D349" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E349" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F349" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="G349" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H349" s="50" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I349" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J349" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K349" s="51">
-        <v>2000</v>
-      </c>
-      <c r="L349" s="51">
-        <v>80</v>
-      </c>
-      <c r="M349" s="50">
-        <v>378</v>
-      </c>
-      <c r="N349" s="50">
-        <v>153</v>
-      </c>
-      <c r="O349" s="50">
-        <v>43</v>
-      </c>
-      <c r="P349" s="50">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q349" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="R349" s="50">
-        <v>3</v>
-      </c>
-      <c r="S349" s="50">
-        <v>8.6</v>
-      </c>
-      <c r="T349" s="50">
-        <v>200</v>
-      </c>
-      <c r="U349" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V349" s="50">
-        <v>1270</v>
-      </c>
-      <c r="W349" s="50"/>
-      <c r="X349" s="50"/>
-      <c r="Y349" s="50">
-        <v>21.5</v>
-      </c>
-      <c r="Z349" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AA349" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB349" s="51">
-        <v>151.69999999999999</v>
-      </c>
-      <c r="AC349" s="51">
-        <v>30.7</v>
-      </c>
-      <c r="AD349" s="51">
-        <v>106.7</v>
-      </c>
-      <c r="AE349" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF349" s="51">
-        <v>2019</v>
-      </c>
-      <c r="AG349" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH349" s="51"/>
-      <c r="AI349" s="51" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AJ349" s="51"/>
-      <c r="AK349" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL349" s="6">
-        <f t="shared" si="32"/>
-        <v>0.02</v>
-      </c>
-      <c r="AM349" s="55">
-        <v>1</v>
-      </c>
-      <c r="AN349" s="40">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
       <c r="AO349">
         <f t="shared" si="29"/>
-        <v>60.79</v>
+        <v>0</v>
       </c>
       <c r="AP349">
         <f t="shared" si="30"/>
-        <v>35.299999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:42" s="40" customFormat="1">
-      <c r="A350" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B350" s="50" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C350" s="50" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D350" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E350" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F350" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="G350" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H350" s="50" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I350" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J350" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K350" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="L350" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="M350" s="50">
-        <v>165</v>
-      </c>
-      <c r="N350" s="50">
-        <v>70</v>
-      </c>
-      <c r="O350" s="50">
-        <v>5</v>
-      </c>
-      <c r="P350" s="50">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q350" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="R350" s="50">
-        <v>3</v>
-      </c>
-      <c r="S350" s="51"/>
-      <c r="T350" s="50">
-        <v>500</v>
-      </c>
-      <c r="U350" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V350" s="50">
-        <v>275</v>
-      </c>
-      <c r="W350" s="50"/>
-      <c r="X350" s="50"/>
-      <c r="Y350" s="50">
-        <v>2.5</v>
-      </c>
-      <c r="Z350" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA350" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB350" s="51">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="AC350" s="51">
-        <v>7.4</v>
-      </c>
-      <c r="AD350" s="51">
-        <v>105.9</v>
-      </c>
-      <c r="AE350" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF350" s="51">
-        <v>2019</v>
-      </c>
-      <c r="AG350" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH350" s="51"/>
-      <c r="AI350" s="53"/>
-      <c r="AJ350" s="51" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AK350" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL350" s="6">
-        <f t="shared" si="32"/>
-        <v>0.02</v>
-      </c>
-      <c r="AM350" s="55">
-        <v>1</v>
-      </c>
-      <c r="AN350" s="40">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
       <c r="AO350">
         <f t="shared" si="29"/>
-        <v>60.79</v>
+        <v>0</v>
       </c>
       <c r="AP350">
         <f t="shared" si="30"/>
-        <v>35.299999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:42" s="40" customFormat="1">
@@ -47885,28 +47712,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="41:42" s="40" customFormat="1">
-      <c r="AO356">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AP356">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="41:42" s="40" customFormat="1">
-      <c r="AO357">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AP357">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="F2:F397" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="F2:F395" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
